--- a/data/trans_orig/P75_M_2012-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P75_M_2012-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA85AB29-367B-4BFC-ACAB-6B2866415782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BE830F2-8B58-41FA-9DAF-4D295CCEF891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1C4BB53C-681C-4EB1-BD65-D2E2D75C5861}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{498629D2-D4A7-407E-8F61-F3D0D397FC0C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="363">
   <si>
     <t>Población según el nivel de estudios de su madre cuando tenían 12 años en 2012 (Tasa respuesta: 97,79%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,07%</t>
+    <t>8,66%</t>
   </si>
   <si>
     <t>0%</t>
@@ -89,1048 +89,1039 @@
     <t>0,84%</t>
   </si>
   <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>Estudios universitarios de grado medio</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>Secundarios segunda etapa (BUP, B.Superior, FPII, COU, Maest</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>Secundarios primera etapa (EGB completa, bachiller elemental</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>Estudios primarios completos o equivalentes (hasta 5º EGB, i</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>No había estudiado/primaria incompleta pero sabía leer y esc</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>No sabía leer o escribir</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
     <t>4,19%</t>
   </si>
   <si>
-    <t>Estudios universitarios de grado medio</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>Secundarios segunda etapa (BUP, B.Superior, FPII, COU, Maest</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>Secundarios primera etapa (EGB completa, bachiller elemental</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>Estudios primarios completos o equivalentes (hasta 5º EGB, i</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>No había estudiado/primaria incompleta pero sabía leer y esc</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>No sabía leer o escribir</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
   </si>
   <si>
     <t>3,62%</t>
   </si>
   <si>
-    <t>2,09%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
   </si>
   <si>
     <t>11,87%</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
   </si>
   <si>
     <t>13,84%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
+    <t>16,39%</t>
   </si>
   <si>
     <t>17,77%</t>
   </si>
   <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1545,7 +1536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0892FD-DD97-456C-A4CB-DD646AF64C63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8903B49C-9055-468A-8E3A-CCB3C065F79F}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2163,10 +2154,10 @@
         <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,13 +2172,13 @@
         <v>11472</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -2196,13 +2187,13 @@
         <v>12664</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -2211,13 +2202,13 @@
         <v>24136</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2232,13 +2223,13 @@
         <v>67412</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>50</v>
@@ -2247,13 +2238,13 @@
         <v>53641</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>114</v>
@@ -2262,7 +2253,7 @@
         <v>121053</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>103</v>
@@ -2316,10 +2307,10 @@
         <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,13 +2325,13 @@
         <v>245347</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>235</v>
@@ -2349,13 +2340,13 @@
         <v>248268</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>468</v>
@@ -2364,13 +2355,13 @@
         <v>493615</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,13 +2376,13 @@
         <v>106664</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>121</v>
@@ -2400,13 +2391,13 @@
         <v>126527</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>220</v>
@@ -2415,13 +2406,13 @@
         <v>233191</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2477,7 +2468,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2489,13 +2480,13 @@
         <v>14550</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -2504,13 +2495,13 @@
         <v>11825</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -2519,13 +2510,13 @@
         <v>26375</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,13 +2531,13 @@
         <v>26160</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>16</v>
@@ -2555,13 +2546,13 @@
         <v>16641</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>41</v>
@@ -2570,13 +2561,13 @@
         <v>42801</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,13 +2582,13 @@
         <v>24296</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -2606,13 +2597,13 @@
         <v>24182</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -2621,13 +2612,13 @@
         <v>48478</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,13 +2633,13 @@
         <v>124670</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>92</v>
@@ -2657,13 +2648,13 @@
         <v>103693</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M23" s="7">
         <v>209</v>
@@ -2672,13 +2663,13 @@
         <v>228363</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2684,13 @@
         <v>242898</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>224</v>
@@ -2708,13 +2699,13 @@
         <v>247890</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>446</v>
@@ -2723,13 +2714,13 @@
         <v>490787</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2735,13 @@
         <v>379409</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>392</v>
@@ -2759,13 +2750,13 @@
         <v>427040</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>743</v>
@@ -2774,13 +2765,13 @@
         <v>806449</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,13 +2786,13 @@
         <v>186113</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>171</v>
@@ -2810,13 +2801,13 @@
         <v>186530</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M26" s="7">
         <v>339</v>
@@ -2825,13 +2816,13 @@
         <v>372643</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,7 +2878,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2899,13 +2890,13 @@
         <v>13460</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -2914,13 +2905,13 @@
         <v>8724</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -2929,13 +2920,13 @@
         <v>22183</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,13 +2941,13 @@
         <v>23292</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -2965,10 +2956,10 @@
         <v>10761</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>19</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>204</v>
@@ -3160,7 +3151,7 @@
         <v>236</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>237</v>
+        <v>120</v>
       </c>
       <c r="H33" s="7">
         <v>256</v>
@@ -3169,13 +3160,13 @@
         <v>277940</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M33" s="7">
         <v>500</v>
@@ -3184,13 +3175,13 @@
         <v>543630</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3196,13 @@
         <v>94000</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H34" s="7">
         <v>123</v>
@@ -3220,13 +3211,13 @@
         <v>131051</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M34" s="7">
         <v>213</v>
@@ -3235,13 +3226,13 @@
         <v>225050</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,7 +3288,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -3309,10 +3300,10 @@
         <v>27267</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>22</v>
+        <v>253</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>254</v>
@@ -3324,13 +3315,13 @@
         <v>32645</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>55</v>
@@ -3339,13 +3330,13 @@
         <v>59911</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,13 +3351,13 @@
         <v>34923</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>32</v>
@@ -3375,13 +3366,13 @@
         <v>35761</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>262</v>
+        <v>144</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>63</v>
@@ -3390,13 +3381,13 @@
         <v>70684</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>92</v>
+        <v>265</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3402,13 @@
         <v>53295</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H38" s="7">
         <v>51</v>
@@ -3426,13 +3417,13 @@
         <v>53378</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M38" s="7">
         <v>105</v>
@@ -3441,13 +3432,13 @@
         <v>106674</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,13 +3453,13 @@
         <v>160554</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>129</v>
+        <v>278</v>
       </c>
       <c r="H39" s="7">
         <v>142</v>
@@ -3477,13 +3468,13 @@
         <v>147526</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M39" s="7">
         <v>301</v>
@@ -3492,13 +3483,13 @@
         <v>308081</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3504,13 @@
         <v>224921</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H40" s="7">
         <v>197</v>
@@ -3528,13 +3519,13 @@
         <v>204670</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M40" s="7">
         <v>409</v>
@@ -3543,13 +3534,13 @@
         <v>429591</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>291</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,13 +3555,13 @@
         <v>328115</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H41" s="7">
         <v>388</v>
@@ -3579,13 +3570,13 @@
         <v>410294</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M41" s="7">
         <v>703</v>
@@ -3594,13 +3585,13 @@
         <v>738409</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,7 +3606,7 @@
         <v>95589</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>301</v>
+        <v>25</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>302</v>
@@ -3722,10 +3713,10 @@
         <v>310</v>
       </c>
       <c r="F44" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H44" s="7">
         <v>48</v>
@@ -3734,13 +3725,13 @@
         <v>54148</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K44" s="7" t="s">
-        <v>314</v>
-      </c>
       <c r="L44" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="M44" s="7">
         <v>100</v>
@@ -3749,13 +3740,13 @@
         <v>115621</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,7 +3767,7 @@
         <v>318</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>319</v>
+        <v>90</v>
       </c>
       <c r="H45" s="7">
         <v>63</v>
@@ -3785,13 +3776,13 @@
         <v>71378</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>206</v>
+        <v>319</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>320</v>
+        <v>139</v>
       </c>
       <c r="M45" s="7">
         <v>150</v>
@@ -3800,13 +3791,13 @@
         <v>164482</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>322</v>
+        <v>138</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>323</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,13 +3812,13 @@
         <v>136040</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H46" s="7">
         <v>114</v>
@@ -3836,13 +3827,13 @@
         <v>123631</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>328</v>
+        <v>212</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M46" s="7">
         <v>240</v>
@@ -3851,13 +3842,13 @@
         <v>259671</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>211</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,13 +3863,13 @@
         <v>478395</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H47" s="7">
         <v>357</v>
@@ -3887,13 +3878,13 @@
         <v>387386</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M47" s="7">
         <v>813</v>
@@ -3902,13 +3893,13 @@
         <v>865780</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>101</v>
+        <v>335</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,13 +3914,13 @@
         <v>801139</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>341</v>
+        <v>112</v>
       </c>
       <c r="H48" s="7">
         <v>742</v>
@@ -3938,13 +3929,13 @@
         <v>803552</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M48" s="7">
         <v>1485</v>
@@ -3953,13 +3944,13 @@
         <v>1604691</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +3965,13 @@
         <v>1273206</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H49" s="7">
         <v>1321</v>
@@ -3989,13 +3980,13 @@
         <v>1420891</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>120</v>
+        <v>350</v>
       </c>
       <c r="M49" s="7">
         <v>2520</v>
@@ -4004,13 +3995,13 @@
         <v>2694097</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,13 +4016,13 @@
         <v>504784</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="H50" s="7">
         <v>581</v>
@@ -4040,13 +4031,13 @@
         <v>618051</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="M50" s="7">
         <v>1055</v>
@@ -4055,13 +4046,13 @@
         <v>1122836</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>362</v>
+        <v>182</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,7 +4108,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P75_M_2012-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P75_M_2012-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BE830F2-8B58-41FA-9DAF-4D295CCEF891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A358EDF-F1C4-4141-B46D-42D51A3F6684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{498629D2-D4A7-407E-8F61-F3D0D397FC0C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E8356FB3-11F4-4BE9-9347-7A9FCDDCE94B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="364">
   <si>
     <t>Población según el nivel de estudios de su madre cuando tenían 12 años en 2012 (Tasa respuesta: 97,79%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Estudios universitarios de grado superior</t>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,66%</t>
+    <t>7,96%</t>
   </si>
   <si>
     <t>0%</t>
@@ -89,7 +89,7 @@
     <t>0,84%</t>
   </si>
   <si>
-    <t>4,16%</t>
+    <t>4,12%</t>
   </si>
   <si>
     <t>Estudios universitarios de grado medio</t>
@@ -98,13 +98,13 @@
     <t>0,67%</t>
   </si>
   <si>
-    <t>4,08%</t>
+    <t>3,46%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,73%</t>
+    <t>1,68%</t>
   </si>
   <si>
     <t>Secundarios segunda etapa (BUP, B.Superior, FPII, COU, Maest</t>
@@ -113,1015 +113,1018 @@
     <t>3,02%</t>
   </si>
   <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>Secundarios primera etapa (EGB completa, bachiller elemental</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>Estudios primarios completos o equivalentes (hasta 5º EGB, i</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>No había estudiado/primaria incompleta pero sabía leer y esc</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>No sabía leer o escribir</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
     <t>10,34%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>Secundarios primera etapa (EGB completa, bachiller elemental</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>Estudios primarios completos o equivalentes (hasta 5º EGB, i</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>No había estudiado/primaria incompleta pero sabía leer y esc</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>No sabía leer o escribir</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
   </si>
   <si>
     <t>39,88%</t>
   </si>
   <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
   </si>
   <si>
     <t>16,45%</t>
   </si>
   <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1536,7 +1539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8903B49C-9055-468A-8E3A-CCB3C065F79F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597F5924-99BE-45B2-9494-B51556711AAA}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2124,10 +2127,10 @@
         <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2136,13 +2139,13 @@
         <v>8216</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -2151,13 +2154,13 @@
         <v>16192</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2172,13 +2175,13 @@
         <v>11472</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -2187,13 +2190,13 @@
         <v>12664</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -2202,10 +2205,10 @@
         <v>24136</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>96</v>
@@ -2253,13 +2256,13 @@
         <v>121053</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2274,13 +2277,13 @@
         <v>135346</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>115</v>
@@ -2289,13 +2292,13 @@
         <v>124147</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>239</v>
@@ -2304,13 +2307,13 @@
         <v>259493</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,13 +2328,13 @@
         <v>245347</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>235</v>
@@ -2340,13 +2343,13 @@
         <v>248268</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>468</v>
@@ -2355,13 +2358,13 @@
         <v>493615</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,13 +2379,13 @@
         <v>106664</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>121</v>
@@ -2391,13 +2394,13 @@
         <v>126527</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>220</v>
@@ -2406,13 +2409,13 @@
         <v>233191</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,7 +2471,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2480,13 +2483,13 @@
         <v>14550</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -2495,13 +2498,13 @@
         <v>11825</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -2510,13 +2513,13 @@
         <v>26375</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>77</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,13 +2534,13 @@
         <v>26160</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>16</v>
@@ -2546,13 +2549,13 @@
         <v>16641</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>41</v>
@@ -2561,13 +2564,13 @@
         <v>42801</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2582,13 +2585,13 @@
         <v>24296</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -2597,13 +2600,13 @@
         <v>24182</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>45</v>
@@ -2612,13 +2615,13 @@
         <v>48478</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,13 +2636,13 @@
         <v>124670</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>92</v>
@@ -2648,13 +2651,13 @@
         <v>103693</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>209</v>
@@ -2663,13 +2666,13 @@
         <v>228363</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,13 +2687,13 @@
         <v>242898</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>224</v>
@@ -2699,13 +2702,13 @@
         <v>247890</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>446</v>
@@ -2714,13 +2717,13 @@
         <v>490787</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,13 +2738,13 @@
         <v>379409</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>392</v>
@@ -2750,13 +2753,13 @@
         <v>427040</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>743</v>
@@ -2765,13 +2768,13 @@
         <v>806449</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2786,13 +2789,13 @@
         <v>186113</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>171</v>
@@ -2801,13 +2804,13 @@
         <v>186530</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>339</v>
@@ -2816,13 +2819,13 @@
         <v>372643</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,7 +2881,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2890,13 +2893,13 @@
         <v>13460</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -2905,13 +2908,13 @@
         <v>8724</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
@@ -2920,13 +2923,13 @@
         <v>22183</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,13 +2944,13 @@
         <v>23292</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -2956,13 +2959,13 @@
         <v>10761</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>30</v>
@@ -2971,13 +2974,13 @@
         <v>34053</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2992,13 +2995,13 @@
         <v>43560</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H30" s="7">
         <v>28</v>
@@ -3007,13 +3010,13 @@
         <v>32435</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M30" s="7">
         <v>64</v>
@@ -3022,13 +3025,13 @@
         <v>75995</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3043,13 +3046,13 @@
         <v>113268</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H31" s="7">
         <v>68</v>
@@ -3058,13 +3061,13 @@
         <v>76920</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>170</v>
@@ -3073,13 +3076,13 @@
         <v>190188</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,13 +3097,13 @@
         <v>180601</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H32" s="7">
         <v>190</v>
@@ -3109,13 +3112,13 @@
         <v>210010</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>355</v>
@@ -3124,13 +3127,13 @@
         <v>390610</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3148,13 @@
         <v>265690</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>120</v>
+        <v>239</v>
       </c>
       <c r="H33" s="7">
         <v>256</v>
@@ -3160,13 +3163,13 @@
         <v>277940</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M33" s="7">
         <v>500</v>
@@ -3175,13 +3178,13 @@
         <v>543630</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,13 +3199,13 @@
         <v>94000</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>162</v>
+        <v>246</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H34" s="7">
         <v>123</v>
@@ -3211,13 +3214,13 @@
         <v>131051</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M34" s="7">
         <v>213</v>
@@ -3226,13 +3229,13 @@
         <v>225050</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,7 +3291,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>10</v>
@@ -3300,13 +3303,13 @@
         <v>27267</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H36" s="7">
         <v>30</v>
@@ -3315,13 +3318,13 @@
         <v>32645</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M36" s="7">
         <v>55</v>
@@ -3330,13 +3333,13 @@
         <v>59911</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>87</v>
+        <v>263</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,13 +3354,13 @@
         <v>34923</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>261</v>
+        <v>141</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H37" s="7">
         <v>32</v>
@@ -3366,13 +3369,13 @@
         <v>35761</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="M37" s="7">
         <v>63</v>
@@ -3381,13 +3384,13 @@
         <v>70684</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>266</v>
+        <v>149</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3405,13 @@
         <v>53295</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H38" s="7">
         <v>51</v>
@@ -3417,13 +3420,13 @@
         <v>53378</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M38" s="7">
         <v>105</v>
@@ -3432,13 +3435,13 @@
         <v>106674</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,13 +3456,13 @@
         <v>160554</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H39" s="7">
         <v>142</v>
@@ -3468,13 +3471,13 @@
         <v>147526</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M39" s="7">
         <v>301</v>
@@ -3483,13 +3486,13 @@
         <v>308081</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,13 +3507,13 @@
         <v>224921</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H40" s="7">
         <v>197</v>
@@ -3519,13 +3522,13 @@
         <v>204670</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M40" s="7">
         <v>409</v>
@@ -3534,13 +3537,13 @@
         <v>429591</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>292</v>
+        <v>193</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,13 +3558,13 @@
         <v>328115</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H41" s="7">
         <v>388</v>
@@ -3570,13 +3573,13 @@
         <v>410294</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M41" s="7">
         <v>703</v>
@@ -3585,13 +3588,13 @@
         <v>738409</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,13 +3609,13 @@
         <v>95589</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H42" s="7">
         <v>140</v>
@@ -3621,13 +3624,13 @@
         <v>143770</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="M42" s="7">
         <v>231</v>
@@ -3636,13 +3639,13 @@
         <v>239359</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,13 +3713,13 @@
         <v>61473</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>310</v>
+        <v>157</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>311</v>
+        <v>156</v>
       </c>
       <c r="H44" s="7">
         <v>48</v>
@@ -3725,13 +3728,13 @@
         <v>54148</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>138</v>
+        <v>316</v>
       </c>
       <c r="M44" s="7">
         <v>100</v>
@@ -3740,10 +3743,10 @@
         <v>115621</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>316</v>
@@ -3761,13 +3764,13 @@
         <v>93103</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>317</v>
+        <v>149</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>318</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>90</v>
+        <v>319</v>
       </c>
       <c r="H45" s="7">
         <v>63</v>
@@ -3776,13 +3779,13 @@
         <v>71378</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>139</v>
+        <v>321</v>
       </c>
       <c r="M45" s="7">
         <v>150</v>
@@ -3791,13 +3794,13 @@
         <v>164482</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="P45" s="7" t="s">
         <v>138</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,13 +3815,13 @@
         <v>136040</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>320</v>
+        <v>143</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H46" s="7">
         <v>114</v>
@@ -3827,13 +3830,13 @@
         <v>123631</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>212</v>
+        <v>326</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M46" s="7">
         <v>240</v>
@@ -3842,13 +3845,13 @@
         <v>259671</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>327</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3866,13 @@
         <v>478395</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H47" s="7">
         <v>357</v>
@@ -3878,13 +3881,13 @@
         <v>387386</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>332</v>
+        <v>43</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="M47" s="7">
         <v>813</v>
@@ -3920,7 +3923,7 @@
         <v>338</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>112</v>
+        <v>339</v>
       </c>
       <c r="H48" s="7">
         <v>742</v>
@@ -3929,13 +3932,13 @@
         <v>803552</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M48" s="7">
         <v>1485</v>
@@ -3944,13 +3947,13 @@
         <v>1604691</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,7 +3968,7 @@
         <v>1273206</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>345</v>
+        <v>116</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>346</v>
@@ -4046,13 +4049,13 @@
         <v>1122836</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>182</v>
+        <v>360</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,7 +4111,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
